--- a/Datasett/Nye datasett/Overnatting.xlsx
+++ b/Datasett/Nye datasett/Overnatting.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\Nye datasett\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\Project_Y\Datasett\Nye datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F344C6-5957-4B63-B33F-D494B332E77A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="overnatting-i-gjesdal-kommune" sheetId="1" r:id="rId1"/>
@@ -79,9 +78,6 @@
     <t>58.68384730</t>
   </si>
   <si>
-    <t xml:space="preserve">Søya hytteutleie </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hytteutleie </t>
   </si>
   <si>
@@ -158,12 +154,15 @@
   </si>
   <si>
     <t>Giljastølen Campingplass</t>
+  </si>
+  <si>
+    <t>Søya hytteutleie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -997,20 +996,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1018,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1030,19 +1029,19 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1062,7 +1061,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1071,10 +1070,10 @@
         <v>4330</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1103,10 +1102,10 @@
         <v>4335</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1120,13 +1119,13 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1135,30 +1134,30 @@
         <v>4330</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1167,30 +1166,30 @@
         <v>4330</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1199,30 +1198,30 @@
         <v>4330</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1231,7 +1230,7 @@
         <v>4335</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Datasett/Nye datasett/Overnatting.xlsx
+++ b/Datasett/Nye datasett/Overnatting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\Project_Y\Datasett\Nye datasett\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\Nye datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85044F3F-A08B-480A-9EFE-E9BFA4790A68}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overnatting-i-gjesdal-kommune" sheetId="1" r:id="rId1"/>
@@ -96,9 +97,6 @@
     <t>Kongeparken Camping</t>
   </si>
   <si>
-    <t xml:space="preserve">Kongeparken Camping </t>
-  </si>
-  <si>
     <t>Camping</t>
   </si>
   <si>
@@ -157,12 +155,15 @@
   </si>
   <si>
     <t>Søya hytteutleie</t>
+  </si>
+  <si>
+    <t>Kongeparken Hytteutleie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -996,20 +997,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1017,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1029,19 +1030,19 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1070,10 +1071,10 @@
         <v>4330</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1102,10 +1103,10 @@
         <v>4335</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1119,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1134,10 +1135,10 @@
         <v>4330</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1151,13 +1152,13 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1166,10 +1167,10 @@
         <v>4330</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1183,13 +1184,13 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1198,30 +1199,30 @@
         <v>4330</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1230,7 +1231,7 @@
         <v>4335</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
